--- a/materials/exp_lists/session_2_11.xlsx
+++ b/materials/exp_lists/session_2_11.xlsx
@@ -233,19 +233,19 @@
     <t>limate</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>шляпа</t>
   </si>
   <si>
-    <t>reskane.wav</t>
+    <t>reketre.wav</t>
   </si>
   <si>
     <t>рукав</t>
   </si>
   <si>
-    <t>reskane = шляпа?</t>
+    <t>reketre = шляпа?</t>
   </si>
   <si>
     <t>vantimu</t>
